--- a/Unity/Assets/Config/Excel/Data/HeroConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/HeroConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -37,6 +37,18 @@
     <t>MagicDef</t>
   </si>
   <si>
+    <t>StrengthValue</t>
+  </si>
+  <si>
+    <t>AgileValue</t>
+  </si>
+  <si>
+    <t>MagicValue</t>
+  </si>
+  <si>
+    <t>MainType</t>
+  </si>
+  <si>
     <t>AtkInterval</t>
   </si>
   <si>
@@ -49,12 +61,15 @@
     <t>AOIRange</t>
   </si>
   <si>
+    <t>ViewDistance</t>
+  </si>
+  <si>
+    <t>UnlockType</t>
+  </si>
+  <si>
     <t>ResourceName</t>
   </si>
   <si>
-    <t>ViewDistance</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -70,6 +85,27 @@
     <t>float</t>
   </si>
   <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>ExchangeFragments</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -94,6 +130,24 @@
     <t>魔抗</t>
   </si>
   <si>
+    <t>力量属性</t>
+  </si>
+  <si>
+    <t>敏捷属性</t>
+  </si>
+  <si>
+    <t>智力属性</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
     <t>攻击间隔</t>
   </si>
   <si>
@@ -106,13 +160,88 @@
     <t>视野范围</t>
   </si>
   <si>
+    <t>熟练度</t>
+  </si>
+  <si>
+    <t>付费购买</t>
+  </si>
+  <si>
+    <t>活动赠送</t>
+  </si>
+  <si>
+    <t>碎片兑换</t>
+  </si>
+  <si>
     <t>资源名称</t>
   </si>
   <si>
-    <t>星辰少女</t>
+    <t>幽冥</t>
   </si>
   <si>
     <t>Unit/Unit</t>
+  </si>
+  <si>
+    <t>大善人</t>
+  </si>
+  <si>
+    <t>作者大人</t>
+  </si>
+  <si>
+    <t>魔尊</t>
+  </si>
+  <si>
+    <t>雪见</t>
+  </si>
+  <si>
+    <t>兽王</t>
+  </si>
+  <si>
+    <t>黑暗游侠</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>钢琴家</t>
+  </si>
+  <si>
+    <t>魔族叛徒</t>
+  </si>
+  <si>
+    <t>黄金射手</t>
+  </si>
+  <si>
+    <t>雪女</t>
+  </si>
+  <si>
+    <t>蒸汽飞机</t>
+  </si>
+  <si>
+    <t>欧皇</t>
+  </si>
+  <si>
+    <t>炎姬</t>
+  </si>
+  <si>
+    <t>剑客</t>
+  </si>
+  <si>
+    <t>血魔</t>
+  </si>
+  <si>
+    <t>妲己</t>
+  </si>
+  <si>
+    <t>星辰法师</t>
+  </si>
+  <si>
+    <t>铁匠-桔子</t>
+  </si>
+  <si>
+    <t>炎灵桔子</t>
+  </si>
+  <si>
+    <t>后羿</t>
   </si>
 </sst>
 </file>
@@ -734,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +887,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1290,24 +1425,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="3" max="3" width="11.6153846153846" customWidth="1"/>
     <col min="6" max="6" width="12.5384615384615" customWidth="1"/>
     <col min="7" max="7" width="10.4615384615385" customWidth="1"/>
-    <col min="8" max="8" width="12.0769230769231" customWidth="1"/>
-    <col min="9" max="11" width="10.3846153846154" customWidth="1"/>
-    <col min="12" max="12" width="24.1538461538462" customWidth="1"/>
-    <col min="13" max="13" width="14.4615384615385" customWidth="1"/>
+    <col min="8" max="8" width="14.8461538461538" customWidth="1"/>
+    <col min="9" max="9" width="11.6923076923077" customWidth="1"/>
+    <col min="10" max="10" width="12.6153846153846" customWidth="1"/>
+    <col min="11" max="11" width="10.4615384615385" customWidth="1"/>
+    <col min="12" max="14" width="12.0769230769231" customWidth="1"/>
+    <col min="15" max="17" width="10.3846153846154" customWidth="1"/>
+    <col min="18" max="18" width="14.4615384615385" customWidth="1"/>
+    <col min="19" max="19" width="11.6923076923077" customWidth="1"/>
+    <col min="20" max="21" width="10.3076923076923" customWidth="1"/>
+    <col min="22" max="22" width="20.7692307692308" customWidth="1"/>
+    <col min="23" max="23" width="24.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,160 +1482,1416 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:13">
+    <row r="2" s="2" customFormat="1" spans="1:23">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:23">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:23">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="W4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>1000</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>9000</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:23">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>1000</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <v>9000</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>9000</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>9000</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
+        <v>9000</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="R11">
+        <v>9000</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>9000</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>200</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>9000</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <v>9000</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+      <c r="R15">
+        <v>9000</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <v>9000</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="J17">
+        <v>1000</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <v>9000</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <v>1000</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>9000</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="R19">
+        <v>9000</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+      <c r="R20">
+        <v>9000</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>200</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+      <c r="R21">
+        <v>9000</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
         <v>15</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>16</v>
+      <c r="R22">
+        <v>9000</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="3" t="s">
+    <row r="23" spans="2:23">
+      <c r="B23">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>1000</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>200</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>9000</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24">
         <v>19</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+      <c r="J24">
+        <v>1000</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>200</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+      <c r="R24">
+        <v>9000</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+    <row r="25" spans="2:23">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>200</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+      <c r="R25">
+        <v>9000</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>1000</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+      <c r="R26">
+        <v>9000</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>1000</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
         <v>200</v>
       </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
         <v>15</v>
       </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5">
+      <c r="R27">
         <v>9000</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="S2:V2"/>
+  </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="单位m/s" sqref="J5:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="单位:m" sqref="K5:K1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="相对于Assets/Bundles路径" sqref="L5:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="单位m/s" sqref="P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P19 P20 P21 P22 P23 P24 P25 P26 P27 P28:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="单位:m" sqref="Q6 Q7 Q8 Q9 Q10 Q11 Q12 Q13 Q14 Q15 Q16 Q17 Q18 Q19 Q20 Q21 Q22 Q23 Q24 Q25 Q26 Q27 Q28:Q1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="相对于Assets/Bundles路径" sqref="W6 W7 W8 W9 W10 W11 W12 W13 W14 W15 W16 W17 W18 W19 W20 W21 W22 W23 W24 W25 W26 W27 W28:W1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
